--- a/medicine/Premiers secours et secourisme/Oxygénothérapie_nasale_à_haut_débit/Oxygénothérapie_nasale_à_haut_débit.xlsx
+++ b/medicine/Premiers secours et secourisme/Oxygénothérapie_nasale_à_haut_débit/Oxygénothérapie_nasale_à_haut_débit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oxyg%C3%A9noth%C3%A9rapie_nasale_%C3%A0_haut_d%C3%A9bit</t>
+          <t>Oxygénothérapie_nasale_à_haut_débit</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'oxygénothérapie nasale à haut débit (appelé couramment « optiflow », du nom commercial de l'appareil utilisé) est un type d'oxygénothérapie normobare permettant de délivrer jusqu'à 60 litres/min d'oxygène gazeux à un patient en détresse respiratoire[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'oxygénothérapie nasale à haut débit (appelé couramment « optiflow », du nom commercial de l'appareil utilisé) est un type d'oxygénothérapie normobare permettant de délivrer jusqu'à 60 litres/min d'oxygène gazeux à un patient en détresse respiratoire.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oxyg%C3%A9noth%C3%A9rapie_nasale_%C3%A0_haut_d%C3%A9bit</t>
+          <t>Oxygénothérapie_nasale_à_haut_débit</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le circuit d'oxygène est adjoint d'un humidificateur et d'un réchauffeur permettant une meilleure tolérance du gaz délivré. Les canules nasales sont également mieux tolérées par les patients que les masques faciaux à haute concentration. 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oxyg%C3%A9noth%C3%A9rapie_nasale_%C3%A0_haut_d%C3%A9bit</t>
+          <t>Oxygénothérapie_nasale_à_haut_débit</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il diminue le travail respiratoire[2]. Il s'avère supérieur à la ventilation non invasive en cas de détresse respiratoire[2], pemettant, en particulier, de diminuer la mortalité[3]. Il réduit l'espace mort de l'arbre respiratoire[4].
-Il permet d'avoir une petite pression expiratoire positive[5]. Il prolonge le temps expiratoire, diminuant ainsi la fréquence respiratoire[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il diminue le travail respiratoire. Il s'avère supérieur à la ventilation non invasive en cas de détresse respiratoire, pemettant, en particulier, de diminuer la mortalité. Il réduit l'espace mort de l'arbre respiratoire.
+Il permet d'avoir une petite pression expiratoire positive. Il prolonge le temps expiratoire, diminuant ainsi la fréquence respiratoire.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Oxyg%C3%A9noth%C3%A9rapie_nasale_%C3%A0_haut_d%C3%A9bit</t>
+          <t>Oxygénothérapie_nasale_à_haut_débit</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces systèmes ont été d'abord utilisés en pédiatrie, mais sont désormais étendus aux adultes[7],[8],[9]. Réservés aux patients possédant une activité ventilatoire spontanée suffisante, ils peuvent permettre d'éviter le passage à une authentique assistance ventilatoire[1],[10]. Cependant, les nombreux biais des études réalisées chez l'adulte ne permettent pas d'évaluer l'efficacité du traitement par rapport à l'oxygénothérapie classique[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces systèmes ont été d'abord utilisés en pédiatrie, mais sont désormais étendus aux adultes. Réservés aux patients possédant une activité ventilatoire spontanée suffisante, ils peuvent permettre d'éviter le passage à une authentique assistance ventilatoire,. Cependant, les nombreux biais des études réalisées chez l'adulte ne permettent pas d'évaluer l'efficacité du traitement par rapport à l'oxygénothérapie classique.
 </t>
         </is>
       </c>
